--- a/Fragmentation_Result.xlsx
+++ b/Fragmentation_Result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_My_Analysis\Landscape_Wurzburg\Frag_PC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_My_Analysis\Landscape_Wurzburg\Frag_Forest_Wurzburg\FragAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AE1ABF-170B-4FFE-85B2-B56ED63D9897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F8E540-55CE-45D0-8798-69BF5A2B5C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{73274F63-8983-4AE3-8E59-C19446C9B1AA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="134">
   <si>
     <t>MSIZ</t>
   </si>
@@ -407,6 +407,39 @@
   </si>
   <si>
     <t>22 - Beech forest with Hordelymus europaeus</t>
+  </si>
+  <si>
+    <t>9- Beech, oak and hornbeam forest with Luzula luzuloides</t>
+  </si>
+  <si>
+    <t>10 - Beech forest with Galium odoratum</t>
+  </si>
+  <si>
+    <t>11 - Beech forests with Circaea lutetiana and ash swamp forests and black alder hornbeam</t>
+  </si>
+  <si>
+    <t>12 - Typical Beech Forest with Hordelymus europaeus</t>
+  </si>
+  <si>
+    <t>13 - Beech forest with Hordelymus europaeus</t>
+  </si>
+  <si>
+    <t>14 - Beech forests with St. Christopher's wort, wood barley, beech, Scotch elm, big-leafed linden, carice, and swallow grass, as well as open, dry areas free of trees.</t>
+  </si>
+  <si>
+    <t>15 - Beech forests with glossy-leaved Carex montana luzula, beech, odorous asperilla, sessile oak and hornbeam.</t>
+  </si>
+  <si>
+    <t>16 - Beech forest with vegetation of dry and open places</t>
+  </si>
+  <si>
+    <t>17 - Beech forest with Luzula luzuloides and Briza media</t>
+  </si>
+  <si>
+    <t>18 - Beech forest with Galium odoratum</t>
+  </si>
+  <si>
+    <t>19 - Beech forest with Hordelymus europaeus</t>
   </si>
 </sst>
 </file>
@@ -417,7 +450,7 @@
     <numFmt numFmtId="164" formatCode="0.00000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,8 +458,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,6 +515,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -497,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -520,31 +596,73 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4304,9 +4422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8534AD-AEE8-4491-912B-AA066F0A1D95}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:I1"/>
-    </sheetView>
+    <sheetView topLeftCell="A14" zoomScale="87" zoomScaleNormal="87" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6216,17 +6332,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF07D86D-98C7-45EA-A3FD-E3200B6BEE21}">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87:A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" customWidth="1"/>
-    <col min="3" max="3" width="55.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" customWidth="1"/>
     <col min="4" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -6283,13 +6399,13 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="19" t="s">
         <v>100</v>
       </c>
       <c r="D2" s="5">
@@ -6327,11 +6443,11 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>101</v>
       </c>
       <c r="D3" s="5">
@@ -6369,9 +6485,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="20" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17" t="s">
         <v>102</v>
       </c>
       <c r="D4" s="5">
@@ -6409,9 +6525,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="20" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="17" t="s">
         <v>103</v>
       </c>
       <c r="D5" s="5">
@@ -6449,11 +6565,11 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="17" t="s">
         <v>104</v>
       </c>
       <c r="D6" s="5">
@@ -6491,9 +6607,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="20" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="17" t="s">
         <v>105</v>
       </c>
       <c r="D7" s="5">
@@ -6531,9 +6647,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="20" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="17" t="s">
         <v>106</v>
       </c>
       <c r="D8" s="5">
@@ -6571,9 +6687,9 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="20" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="17" t="s">
         <v>107</v>
       </c>
       <c r="D9" s="5">
@@ -6611,9 +6727,9 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="20" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="17" t="s">
         <v>108</v>
       </c>
       <c r="D10" s="5">
@@ -6651,9 +6767,9 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="20" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="17" t="s">
         <v>109</v>
       </c>
       <c r="D11" s="5">
@@ -6691,11 +6807,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="17" t="s">
         <v>110</v>
       </c>
       <c r="D12" s="5">
@@ -6733,9 +6849,9 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="20" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="17" t="s">
         <v>111</v>
       </c>
       <c r="D13" s="5">
@@ -6773,9 +6889,9 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="20" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="17" t="s">
         <v>110</v>
       </c>
       <c r="D14" s="5">
@@ -6813,9 +6929,9 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="20" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="17" t="s">
         <v>112</v>
       </c>
       <c r="D15" s="5">
@@ -6853,11 +6969,11 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="21" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="17" t="s">
         <v>113</v>
       </c>
       <c r="D16" s="5">
@@ -6895,9 +7011,9 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="20" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="17" t="s">
         <v>114</v>
       </c>
       <c r="D17" s="5">
@@ -6935,9 +7051,9 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="20" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D18" s="5">
@@ -6975,9 +7091,9 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="20" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D19" s="5">
@@ -7015,9 +7131,9 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="20" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="17" t="s">
         <v>116</v>
       </c>
       <c r="D20" s="5">
@@ -7055,9 +7171,9 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="20" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="17" t="s">
         <v>117</v>
       </c>
       <c r="D21" s="5">
@@ -7095,13 +7211,13 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>118</v>
       </c>
       <c r="D22" s="5">
@@ -7139,11 +7255,11 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>119</v>
       </c>
       <c r="D23" s="5">
@@ -7181,9 +7297,9 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="17" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="16" t="s">
         <v>120</v>
       </c>
       <c r="D24" s="5">
@@ -7221,9 +7337,9 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="17" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="16" t="s">
         <v>121</v>
       </c>
       <c r="D25" s="5">
@@ -7261,11 +7377,11 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>122</v>
       </c>
       <c r="D26" s="5">
@@ -7334,7 +7450,7 @@
         <v>0.23905999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>83</v>
       </c>
@@ -7366,7 +7482,7 @@
         <v>0.55920999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>88</v>
       </c>
@@ -7422,7 +7538,7 @@
         <v>1.3974800000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>92</v>
       </c>
@@ -7508,13 +7624,183 @@
       </c>
       <c r="B64" s="7">
         <v>43.83605</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="25"/>
+      <c r="B88" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="25"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="25"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="25"/>
+      <c r="B91" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C91" s="37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="25"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="25"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="25"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="25"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="25"/>
+      <c r="B96" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="25"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="25"/>
+      <c r="B98" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C98" s="32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="25"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="25"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="25"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="25"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C103" s="34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="33"/>
+      <c r="B104" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C104" s="34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="33"/>
+      <c r="B105" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C105" s="34" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A40:B64">
     <sortCondition ref="B40:B64"/>
   </sortState>
-  <mergeCells count="7">
+  <mergeCells count="13">
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A87:A102"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B98:B102"/>
     <mergeCell ref="A2:A21"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="B3:B5"/>
